--- a/Data/StephCurryStadiumPopcornRankings.xlsx
+++ b/Data/StephCurryStadiumPopcornRankings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43ebdbc5d5265516/VizWiz/Makeover Monday/Data/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kubrickgroup-my.sharepoint.com/personal/georgiannajames_kubrickgroup_com/Documents/Up-skilling/Steph-Curry-Popcorn-Ranking-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DFA8AD-BBCE-9E41-9D42-E084B7716021}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{18DFA8AD-BBCE-9E41-9D42-E084B7716021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE3DEE4-4523-42CD-912E-E17279E05867}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16200" xr2:uid="{D5EEEAC1-6BE5-9E4A-A2AA-15D943BD2ABE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5EEEAC1-6BE5-9E4A-A2AA-15D943BD2ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Dallas Mavericks</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Spectrum Center</t>
   </si>
   <si>
-    <t>Los Angeles Clippers/Lakers</t>
-  </si>
-  <si>
     <t>Staples Center</t>
   </si>
   <si>
@@ -231,6 +228,12 @@
   </si>
   <si>
     <t>ARENA</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -581,41 +584,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AA6FA2-12D9-EC4B-AFF5-53AA267E0CEE}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1348,10 +1353,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1369,6 +1374,32 @@
         <v>3</v>
       </c>
       <c r="H30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
         <v>10</v>
       </c>
     </row>
